--- a/DATA/IsoData/KONZIsoData.xlsx
+++ b/DATA/IsoData/KONZIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">8bc7ac7f-3db1-46fa-8607-27de6fdb27a9</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad781c74-86a9-42c8-91c8-55f60ee85a89</t>
   </si>
   <si>
     <t xml:space="preserve">KONZ.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T172520Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">401a715e-5ca5-4087-8940-81fda05e2a14</t>
+    <t xml:space="preserve">20210111T180048Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71a38d80-d814-413e-a308-9dd5e35d0cc7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20181204.1200</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000041718</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170625Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">852a75e2-d518-4e7a-9b25-061bfcf17cba</t>
+    <t xml:space="preserve">20210111T164748Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80bc269b-fdbc-4a8f-9a81-d706213eedc9</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190115.1215</t>
@@ -116,10 +122,10 @@
     <t xml:space="preserve">A00000041719</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170157Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca7ecf42-3cbf-4cb3-88f4-f719e1b31ade</t>
+    <t xml:space="preserve">20210111T164523Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fb3bbc09-19c4-4c6a-b932-38b4e495aca4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190412.1410</t>
@@ -131,10 +137,10 @@
     <t xml:space="preserve">A00000041802</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171913Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aae8c228-430c-4ab4-b8f2-aef6a7bd13cf</t>
+    <t xml:space="preserve">20210111T175037Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a3140b24-0fcc-44dc-8b44-5edfd0b78882</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190424.1430</t>
@@ -146,7 +152,7 @@
     <t xml:space="preserve">A00000041837</t>
   </si>
   <si>
-    <t xml:space="preserve">38a1614f-1c19-430f-bb33-99bf749e19a3</t>
+    <t xml:space="preserve">333f3154-ac49-4dde-b7be-f7fc9e4a3ed6</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190510.1129</t>
@@ -158,10 +164,10 @@
     <t xml:space="preserve">A00000041803</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T172041Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df82edf4-8217-42c9-a100-82be1d43548e</t>
+    <t xml:space="preserve">20210111T174439Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0e27ab14-14ff-4f79-9b52-a5c05f7f90f4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190522.1430</t>
@@ -173,7 +179,7 @@
     <t xml:space="preserve">A00000041737</t>
   </si>
   <si>
-    <t xml:space="preserve">371470ad-ee07-4fe2-8bbf-a82018825c63</t>
+    <t xml:space="preserve">e60e63d1-2b70-4c86-8582-00c307626b20</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190604.1356</t>
@@ -185,10 +191,10 @@
     <t xml:space="preserve">A00000041753</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165900Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aef3b729-898e-43ec-b670-0a96c35f6079</t>
+    <t xml:space="preserve">20210111T174246Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1e129cf6-ceef-44d4-97ec-696a398ccb6c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190617.1530</t>
@@ -200,7 +206,7 @@
     <t xml:space="preserve">A00000041840</t>
   </si>
   <si>
-    <t xml:space="preserve">81ca4e81-a007-4dc2-87ff-030061586852</t>
+    <t xml:space="preserve">cd32857d-68a2-4d09-81a1-d3a25dc53857</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190702.0900</t>
@@ -212,10 +218,10 @@
     <t xml:space="preserve">A00000041771</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165959Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7d3f405-78c0-4bfe-b876-9a3ba4039478</t>
+    <t xml:space="preserve">20210111T174314Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbebf016-cc76-4261-9556-c82f12789c9e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190718.1125</t>
@@ -227,7 +233,7 @@
     <t xml:space="preserve">A00000041823</t>
   </si>
   <si>
-    <t xml:space="preserve">0f11b84e-d7ad-4067-beb4-6eb36cf6cce9</t>
+    <t xml:space="preserve">b2f864a2-1fae-4459-9945-3881aaa2ba75</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190729.1550</t>
@@ -239,7 +245,7 @@
     <t xml:space="preserve">A00000041738</t>
   </si>
   <si>
-    <t xml:space="preserve">cbe0934c-45c6-407b-adab-a75ba89d5fba</t>
+    <t xml:space="preserve">3c4fe2ff-6b77-44d4-a074-f71f32674188</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190815.1035</t>
@@ -251,10 +257,10 @@
     <t xml:space="preserve">A00000041755</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T172240Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6d323e7a-495f-4824-ba49-0c9d5692b9b1</t>
+    <t xml:space="preserve">20210111T175350Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">018a1f9b-3f20-44c3-8294-678fffc923f7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190828.1430</t>
@@ -266,7 +272,7 @@
     <t xml:space="preserve">A00000041846</t>
   </si>
   <si>
-    <t xml:space="preserve">d43915de-25f0-4872-9119-da7d1db80390</t>
+    <t xml:space="preserve">d3170525-8fe4-43e1-abd8-fbb6da841812</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190911.1120</t>
@@ -278,10 +284,10 @@
     <t xml:space="preserve">A00000041790</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T172401Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">767d882f-9adb-422d-8953-b4953e19406f</t>
+    <t xml:space="preserve">20210111T175431Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">932fb3c4-f7a1-40da-8a5f-44347986e3b3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20190925.1200</t>
@@ -293,7 +299,7 @@
     <t xml:space="preserve">A00000041775</t>
   </si>
   <si>
-    <t xml:space="preserve">b52ee9bb-8a55-4b5c-9e36-f3ba3393f7fc</t>
+    <t xml:space="preserve">da3e7810-43bd-4ca2-bef5-cbb8ad54c4f5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20191014.1110</t>
@@ -305,10 +311,10 @@
     <t xml:space="preserve">A00000041779</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T172537Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7f378be-f10a-41cd-b0fb-ba99e04c8708</t>
+    <t xml:space="preserve">20210111T175928Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e769f508-9cfb-4658-96ee-23ff5059b42e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20191022.1445</t>
@@ -320,7 +326,7 @@
     <t xml:space="preserve">A00000041780</t>
   </si>
   <si>
-    <t xml:space="preserve">ab0d92f6-84d4-4eaa-bb4a-068ebe3f9598</t>
+    <t xml:space="preserve">e5c2183c-c33d-48cc-b064-a3851d8e2dff</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20191122.1341</t>
@@ -332,7 +338,10 @@
     <t xml:space="preserve">A00000041851</t>
   </si>
   <si>
-    <t xml:space="preserve">3bad3957-5647-4575-8789-3454afeb3a54</t>
+    <t xml:space="preserve">20210111T164854Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">459bbf7f-c9fb-41d9-a20c-2a2acad1dfb4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20191203.1025</t>
@@ -344,10 +353,10 @@
     <t xml:space="preserve">A00000041827</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T172022Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17e9ba69-95ee-47ef-b0d9-142ed523d0a0</t>
+    <t xml:space="preserve">20210111T165020Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07035e9c-786e-4653-899e-e7d28a0d61d5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20191218.1445</t>
@@ -359,7 +368,7 @@
     <t xml:space="preserve">A00000041757</t>
   </si>
   <si>
-    <t xml:space="preserve">a85eb739-efe1-42db-9472-b8b27b77d270</t>
+    <t xml:space="preserve">9360f4b7-6d51-483e-a62f-298cea628e81</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.KONZ.20191231.1145</t>
@@ -369,6 +378,51 @@
   </si>
   <si>
     <t xml:space="preserve">A00000041723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7eef379c-d44d-44d1-af3e-337d97f6dc4f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.KONZ.20200114.1308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.KONZ.20200114.1308.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000041724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T164808Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07848dc7-3890-482b-a874-3a72c990e89e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.KONZ.20200204.1007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.KONZ.20200204.1007.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000041761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T165150Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff34beb8-b17e-42e3-9ced-c53d12722d82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.KONZ.20200228.1305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.KONZ.20200228.1305.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000041744</t>
   </si>
 </sst>
 </file>
@@ -706,7 +760,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -760,23 +814,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43410.75</v>
@@ -797,35 +854,38 @@
         <v>0.139</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43535.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43424.7479166667</v>
@@ -846,35 +906,38 @@
         <v>0.058</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43535.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43467.8416666667</v>
@@ -895,35 +958,38 @@
         <v>0.098</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43535.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43549.7569444444</v>
@@ -944,35 +1010,38 @@
         <v>0.085</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43636.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43567.7986111111</v>
@@ -993,35 +1062,38 @@
         <v>0.105</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43636.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43579.8166666667</v>
@@ -1042,35 +1114,38 @@
         <v>0.148</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43636.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43595.6944444444</v>
@@ -1091,35 +1166,38 @@
         <v>0.187</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43675.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43607.8194444444</v>
@@ -1140,38 +1218,41 @@
         <v>0.173</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43675.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>43615.7888888889</v>
+        <v>43620.7895833333</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>43633.8541666667</v>
@@ -1189,35 +1270,38 @@
         <v>0.164</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43675.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43633.8541666667</v>
@@ -1238,35 +1322,38 @@
         <v>0.097</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43675.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43648.5854166667</v>
@@ -1287,35 +1374,38 @@
         <v>0.38</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43664.6875</v>
@@ -1336,35 +1426,38 @@
         <v>0.192</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43675.875</v>
@@ -1385,35 +1478,38 @@
         <v>0.422</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43692.7083333333</v>
@@ -1434,35 +1530,38 @@
         <v>0.155</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43705.7916666667</v>
@@ -1483,35 +1582,38 @@
         <v>0.264</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43719.6840277778</v>
@@ -1532,35 +1634,38 @@
         <v>0.242</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43733.7291666667</v>
@@ -1581,35 +1686,38 @@
         <v>0.333</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43752.6736111111</v>
@@ -1630,35 +1738,38 @@
         <v>0.083</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43777.7222222222</v>
@@ -1679,35 +1790,38 @@
         <v>0.07</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43859.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>39</v>
+        <v>108</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43791.8208333333</v>
@@ -1728,35 +1842,38 @@
         <v>0.134</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43859.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>43802.6979166667</v>
@@ -1777,35 +1894,38 @@
         <v>0.131</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43859.7916666667</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>43817.8680555556</v>
@@ -1826,17 +1946,176 @@
         <v>0.166</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>43859.7916666667</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>43830.75</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>43844.7972222222</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-7.158</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-37.165</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>44001.75</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24" t="s">
+        <v>126</v>
+      </c>
+      <c r="R24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>43844.7916666667</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>43865.6715277778</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-10.477</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-68.427</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>44001.75</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25" t="s">
+        <v>132</v>
+      </c>
+      <c r="R25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>43873.8541666667</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>43889.7951388889</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-17.256</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-128.31</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>44001.75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>132</v>
+      </c>
+      <c r="R26" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
